--- a/test_export.xlsx
+++ b/test_export.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,76 +511,6 @@
           <t>_submitted_by</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>barrio</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>relev_id</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>gps</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>dir_calle</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>dir_altura</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>dir_piso</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>dir_manzana_tira</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>dir_casa</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>dir_other</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>detect_hogares</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>multi_hogar</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>uuid</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>instanceID</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>rootUuid</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,40 +558,6 @@
           <t>observatoriovillero</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>995a8b6ecd294c72a8cbcfaa42739e9e</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>uuid:c9331778-1954-4675-9de3-de64c4c3b2cb</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>uuid:c9331778-1954-4675-9de3-de64c4c3b2cb</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -707,36 +603,6 @@
       <c r="O3" t="inlineStr">
         <is>
           <t>observatoriovillero</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>995a8b6ecd294c72a8cbcfaa42739e9e</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>uuid:0534bd34-80f8-44f2-8c34-7be0e1d7cf66</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>uuid:0534bd34-80f8-44f2-8c34-7be0e1d7cf66</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW7"/>
+  <dimension ref="A1:FJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2220,352 +2086,807 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>sexo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>genero</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>parentesco</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>nivel_educ</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>filter_eut</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ocup</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>motivo_no_trab</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>no_trab</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>desocup</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ocup_ppal</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>hs_ppal</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>tc</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>hs_tc</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>dia_tipico_tc</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>dia_tipico_ocupados</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>día_tipico_inactivos_desempleados</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>act_1_0000</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>act_2_0000</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0000</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>act_1_0030</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>act_2_0030</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0030</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>act_1_0100</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>act_2_0100</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0100</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>act_1_0130</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>act_2_0130</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0130</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>act_1_0200</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>act_2_0200</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0200</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>act_1_0230</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>act_2_0230</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0230</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>act_1_0300</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>act_2_0300</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0300</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>act_1_0330</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>act_2_0330</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0330</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>act_1_0400</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>act_2_0400</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0400</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>act_1_0430</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>act_2_0430</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0430</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>act_1_0500</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>act_2_0500</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0500</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>act_1_0530</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>act_2_0530</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0530</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>act_1_0600</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>act_2_0600</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0600</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>act_1_0630</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>act_2_0630</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0630</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_0700</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>act_2_0700</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0700</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_0730</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>act_2_0730</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0730</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_0800</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>act_2_0800</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0800</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_0830</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>act_2_0830</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0830</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_0900</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>act_2_0900</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0900</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_0930</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>act_2_0930</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_0930</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1000</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>act_2_1000</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1000</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1030</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>act_2_1030</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1030</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1100</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>act_2_1100</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1100</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1130</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>act_2_1130</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1130</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1200</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>act_2_1200</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1200</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1230</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>act_2_1230</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1230</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1300</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>act_2_1300</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1300</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1330</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>act_2_1330</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1330</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1400</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>act_2_1400</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1400</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1430</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>act_2_1430</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1430</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1500</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>act_2_1500</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1500</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1530</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>act_2_1530</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1530</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1600</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>act_2_1600</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1600</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1630</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>act_2_1630</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1630</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1700</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>act_2_1700</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1700</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1730</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>act_2_1730</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1730</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1800</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>act_2_1800</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1800</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1830</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>act_2_1830</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1830</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1900</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>act_2_1900</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1900</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_1930</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>act_2_1930</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_1930</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_2000</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>act_2_2000</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_2000</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_2030</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>act_2_2030</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_2030</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_2100</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>act_2_2100</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_2100</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_2130</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>act_2_2130</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_2130</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_2200</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>act_2_2200</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_2200</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_2230</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>act_2_2230</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_2230</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_2300</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>act_2_2300</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_2300</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>act_1_2330</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>act_2_2330</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>act_3_2330</t>
         </is>
       </c>
     </row>
@@ -2593,356 +2914,447 @@
           <t>15</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="BK2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2" t="inlineStr"/>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2" t="inlineStr"/>
+      <c r="DY2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DZ2" t="inlineStr"/>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2" t="inlineStr"/>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EF2" t="inlineStr"/>
+      <c r="EG2" t="inlineStr"/>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EI2" t="inlineStr"/>
+      <c r="EJ2" t="inlineStr"/>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EL2" t="inlineStr"/>
+      <c r="EM2" t="inlineStr"/>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr"/>
+      <c r="EP2" t="inlineStr"/>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="ER2" t="inlineStr"/>
+      <c r="ES2" t="inlineStr"/>
+      <c r="ET2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EU2" t="inlineStr"/>
+      <c r="EV2" t="inlineStr"/>
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EX2" t="inlineStr"/>
+      <c r="EY2" t="inlineStr"/>
+      <c r="EZ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FA2" t="inlineStr"/>
+      <c r="FB2" t="inlineStr"/>
+      <c r="FC2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FD2" t="inlineStr"/>
+      <c r="FE2" t="inlineStr"/>
+      <c r="FF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FG2" t="inlineStr"/>
+      <c r="FH2" t="inlineStr"/>
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2968,13 +3380,13 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -3042,6 +3454,97 @@
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr"/>
+      <c r="DK3" t="inlineStr"/>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr"/>
+      <c r="DQ3" t="inlineStr"/>
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr"/>
+      <c r="DV3" t="inlineStr"/>
+      <c r="DW3" t="inlineStr"/>
+      <c r="DX3" t="inlineStr"/>
+      <c r="DY3" t="inlineStr"/>
+      <c r="DZ3" t="inlineStr"/>
+      <c r="EA3" t="inlineStr"/>
+      <c r="EB3" t="inlineStr"/>
+      <c r="EC3" t="inlineStr"/>
+      <c r="ED3" t="inlineStr"/>
+      <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr"/>
+      <c r="EG3" t="inlineStr"/>
+      <c r="EH3" t="inlineStr"/>
+      <c r="EI3" t="inlineStr"/>
+      <c r="EJ3" t="inlineStr"/>
+      <c r="EK3" t="inlineStr"/>
+      <c r="EL3" t="inlineStr"/>
+      <c r="EM3" t="inlineStr"/>
+      <c r="EN3" t="inlineStr"/>
+      <c r="EO3" t="inlineStr"/>
+      <c r="EP3" t="inlineStr"/>
+      <c r="EQ3" t="inlineStr"/>
+      <c r="ER3" t="inlineStr"/>
+      <c r="ES3" t="inlineStr"/>
+      <c r="ET3" t="inlineStr"/>
+      <c r="EU3" t="inlineStr"/>
+      <c r="EV3" t="inlineStr"/>
+      <c r="EW3" t="inlineStr"/>
+      <c r="EX3" t="inlineStr"/>
+      <c r="EY3" t="inlineStr"/>
+      <c r="EZ3" t="inlineStr"/>
+      <c r="FA3" t="inlineStr"/>
+      <c r="FB3" t="inlineStr"/>
+      <c r="FC3" t="inlineStr"/>
+      <c r="FD3" t="inlineStr"/>
+      <c r="FE3" t="inlineStr"/>
+      <c r="FF3" t="inlineStr"/>
+      <c r="FG3" t="inlineStr"/>
+      <c r="FH3" t="inlineStr"/>
+      <c r="FI3" t="inlineStr"/>
+      <c r="FJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3067,32 +3570,32 @@
           <t>22</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -3153,6 +3656,97 @@
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr"/>
+      <c r="DQ4" t="inlineStr"/>
+      <c r="DR4" t="inlineStr"/>
+      <c r="DS4" t="inlineStr"/>
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="inlineStr"/>
+      <c r="DV4" t="inlineStr"/>
+      <c r="DW4" t="inlineStr"/>
+      <c r="DX4" t="inlineStr"/>
+      <c r="DY4" t="inlineStr"/>
+      <c r="DZ4" t="inlineStr"/>
+      <c r="EA4" t="inlineStr"/>
+      <c r="EB4" t="inlineStr"/>
+      <c r="EC4" t="inlineStr"/>
+      <c r="ED4" t="inlineStr"/>
+      <c r="EE4" t="inlineStr"/>
+      <c r="EF4" t="inlineStr"/>
+      <c r="EG4" t="inlineStr"/>
+      <c r="EH4" t="inlineStr"/>
+      <c r="EI4" t="inlineStr"/>
+      <c r="EJ4" t="inlineStr"/>
+      <c r="EK4" t="inlineStr"/>
+      <c r="EL4" t="inlineStr"/>
+      <c r="EM4" t="inlineStr"/>
+      <c r="EN4" t="inlineStr"/>
+      <c r="EO4" t="inlineStr"/>
+      <c r="EP4" t="inlineStr"/>
+      <c r="EQ4" t="inlineStr"/>
+      <c r="ER4" t="inlineStr"/>
+      <c r="ES4" t="inlineStr"/>
+      <c r="ET4" t="inlineStr"/>
+      <c r="EU4" t="inlineStr"/>
+      <c r="EV4" t="inlineStr"/>
+      <c r="EW4" t="inlineStr"/>
+      <c r="EX4" t="inlineStr"/>
+      <c r="EY4" t="inlineStr"/>
+      <c r="EZ4" t="inlineStr"/>
+      <c r="FA4" t="inlineStr"/>
+      <c r="FB4" t="inlineStr"/>
+      <c r="FC4" t="inlineStr"/>
+      <c r="FD4" t="inlineStr"/>
+      <c r="FE4" t="inlineStr"/>
+      <c r="FF4" t="inlineStr"/>
+      <c r="FG4" t="inlineStr"/>
+      <c r="FH4" t="inlineStr"/>
+      <c r="FI4" t="inlineStr"/>
+      <c r="FJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3178,356 +3772,447 @@
           <t>22</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="BK5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BR5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BU5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BV5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
       <c r="BW5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DQ5" t="inlineStr"/>
+      <c r="DR5" t="inlineStr"/>
+      <c r="DS5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="inlineStr"/>
+      <c r="DV5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DW5" t="inlineStr"/>
+      <c r="DX5" t="inlineStr"/>
+      <c r="DY5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DZ5" t="inlineStr"/>
+      <c r="EA5" t="inlineStr"/>
+      <c r="EB5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EC5" t="inlineStr"/>
+      <c r="ED5" t="inlineStr"/>
+      <c r="EE5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EF5" t="inlineStr"/>
+      <c r="EG5" t="inlineStr"/>
+      <c r="EH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EI5" t="inlineStr"/>
+      <c r="EJ5" t="inlineStr"/>
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr"/>
+      <c r="EM5" t="inlineStr"/>
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr"/>
+      <c r="EP5" t="inlineStr"/>
+      <c r="EQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="ER5" t="inlineStr"/>
+      <c r="ES5" t="inlineStr"/>
+      <c r="ET5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EU5" t="inlineStr"/>
+      <c r="EV5" t="inlineStr"/>
+      <c r="EW5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EX5" t="inlineStr"/>
+      <c r="EY5" t="inlineStr"/>
+      <c r="EZ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FA5" t="inlineStr"/>
+      <c r="FB5" t="inlineStr"/>
+      <c r="FC5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FD5" t="inlineStr"/>
+      <c r="FE5" t="inlineStr"/>
+      <c r="FF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FG5" t="inlineStr"/>
+      <c r="FH5" t="inlineStr"/>
+      <c r="FI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3553,13 +4238,13 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -3627,6 +4312,97 @@
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
       <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr"/>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="inlineStr"/>
+      <c r="DK6" t="inlineStr"/>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr"/>
+      <c r="DQ6" t="inlineStr"/>
+      <c r="DR6" t="inlineStr"/>
+      <c r="DS6" t="inlineStr"/>
+      <c r="DT6" t="inlineStr"/>
+      <c r="DU6" t="inlineStr"/>
+      <c r="DV6" t="inlineStr"/>
+      <c r="DW6" t="inlineStr"/>
+      <c r="DX6" t="inlineStr"/>
+      <c r="DY6" t="inlineStr"/>
+      <c r="DZ6" t="inlineStr"/>
+      <c r="EA6" t="inlineStr"/>
+      <c r="EB6" t="inlineStr"/>
+      <c r="EC6" t="inlineStr"/>
+      <c r="ED6" t="inlineStr"/>
+      <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr"/>
+      <c r="EG6" t="inlineStr"/>
+      <c r="EH6" t="inlineStr"/>
+      <c r="EI6" t="inlineStr"/>
+      <c r="EJ6" t="inlineStr"/>
+      <c r="EK6" t="inlineStr"/>
+      <c r="EL6" t="inlineStr"/>
+      <c r="EM6" t="inlineStr"/>
+      <c r="EN6" t="inlineStr"/>
+      <c r="EO6" t="inlineStr"/>
+      <c r="EP6" t="inlineStr"/>
+      <c r="EQ6" t="inlineStr"/>
+      <c r="ER6" t="inlineStr"/>
+      <c r="ES6" t="inlineStr"/>
+      <c r="ET6" t="inlineStr"/>
+      <c r="EU6" t="inlineStr"/>
+      <c r="EV6" t="inlineStr"/>
+      <c r="EW6" t="inlineStr"/>
+      <c r="EX6" t="inlineStr"/>
+      <c r="EY6" t="inlineStr"/>
+      <c r="EZ6" t="inlineStr"/>
+      <c r="FA6" t="inlineStr"/>
+      <c r="FB6" t="inlineStr"/>
+      <c r="FC6" t="inlineStr"/>
+      <c r="FD6" t="inlineStr"/>
+      <c r="FE6" t="inlineStr"/>
+      <c r="FF6" t="inlineStr"/>
+      <c r="FG6" t="inlineStr"/>
+      <c r="FH6" t="inlineStr"/>
+      <c r="FI6" t="inlineStr"/>
+      <c r="FJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3652,13 +4428,13 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -3726,6 +4502,97 @@
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr"/>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="inlineStr"/>
+      <c r="CZ7" t="inlineStr"/>
+      <c r="DA7" t="inlineStr"/>
+      <c r="DB7" t="inlineStr"/>
+      <c r="DC7" t="inlineStr"/>
+      <c r="DD7" t="inlineStr"/>
+      <c r="DE7" t="inlineStr"/>
+      <c r="DF7" t="inlineStr"/>
+      <c r="DG7" t="inlineStr"/>
+      <c r="DH7" t="inlineStr"/>
+      <c r="DI7" t="inlineStr"/>
+      <c r="DJ7" t="inlineStr"/>
+      <c r="DK7" t="inlineStr"/>
+      <c r="DL7" t="inlineStr"/>
+      <c r="DM7" t="inlineStr"/>
+      <c r="DN7" t="inlineStr"/>
+      <c r="DO7" t="inlineStr"/>
+      <c r="DP7" t="inlineStr"/>
+      <c r="DQ7" t="inlineStr"/>
+      <c r="DR7" t="inlineStr"/>
+      <c r="DS7" t="inlineStr"/>
+      <c r="DT7" t="inlineStr"/>
+      <c r="DU7" t="inlineStr"/>
+      <c r="DV7" t="inlineStr"/>
+      <c r="DW7" t="inlineStr"/>
+      <c r="DX7" t="inlineStr"/>
+      <c r="DY7" t="inlineStr"/>
+      <c r="DZ7" t="inlineStr"/>
+      <c r="EA7" t="inlineStr"/>
+      <c r="EB7" t="inlineStr"/>
+      <c r="EC7" t="inlineStr"/>
+      <c r="ED7" t="inlineStr"/>
+      <c r="EE7" t="inlineStr"/>
+      <c r="EF7" t="inlineStr"/>
+      <c r="EG7" t="inlineStr"/>
+      <c r="EH7" t="inlineStr"/>
+      <c r="EI7" t="inlineStr"/>
+      <c r="EJ7" t="inlineStr"/>
+      <c r="EK7" t="inlineStr"/>
+      <c r="EL7" t="inlineStr"/>
+      <c r="EM7" t="inlineStr"/>
+      <c r="EN7" t="inlineStr"/>
+      <c r="EO7" t="inlineStr"/>
+      <c r="EP7" t="inlineStr"/>
+      <c r="EQ7" t="inlineStr"/>
+      <c r="ER7" t="inlineStr"/>
+      <c r="ES7" t="inlineStr"/>
+      <c r="ET7" t="inlineStr"/>
+      <c r="EU7" t="inlineStr"/>
+      <c r="EV7" t="inlineStr"/>
+      <c r="EW7" t="inlineStr"/>
+      <c r="EX7" t="inlineStr"/>
+      <c r="EY7" t="inlineStr"/>
+      <c r="EZ7" t="inlineStr"/>
+      <c r="FA7" t="inlineStr"/>
+      <c r="FB7" t="inlineStr"/>
+      <c r="FC7" t="inlineStr"/>
+      <c r="FD7" t="inlineStr"/>
+      <c r="FE7" t="inlineStr"/>
+      <c r="FF7" t="inlineStr"/>
+      <c r="FG7" t="inlineStr"/>
+      <c r="FH7" t="inlineStr"/>
+      <c r="FI7" t="inlineStr"/>
+      <c r="FJ7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
